--- a/ZohoCRM/testdata/testdata.xlsx
+++ b/ZohoCRM/testdata/testdata.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\130PMWorkshop\AutomationWorkspace\ZohoCRM\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0310EE-2C02-4697-9AD2-774E84C579CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{35A76BAD-7A9F-4DE0-807C-6D66394C5386}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="6135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="1" r:id="rId1"/>
+    <sheet name="TC002" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Campaigns</t>
   </si>
@@ -37,12 +33,21 @@
   </si>
   <si>
     <t>CampagnName</t>
+  </si>
+  <si>
+    <t>ILOVEQSPIDERS</t>
+  </si>
+  <si>
+    <t>NavLinkName1</t>
+  </si>
+  <si>
+    <t>Leads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,10 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,11 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A16E57-ED3B-42F8-9526-9E4A787E06B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,4 +461,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>